--- a/biology/Zoologie/Apis_cerana/Apis_cerana.xlsx
+++ b/biology/Zoologie/Apis_cerana/Apis_cerana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'abeille asiatique (Apis cerana) est une espèce d'insectes de la famille des Apidés.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle se différencie de l'abeille commune par une taille légèrement plus petite et des bandes abdominales plus proéminentes.
 </t>
@@ -542,9 +556,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elles se répartissent à travers des zones de forêt humide, steppe, savanne, prairie, taïga et forêt secondaire[1] de l'Asie.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elles se répartissent à travers des zones de forêt humide, steppe, savanne, prairie, taïga et forêt secondaire de l'Asie.
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Ennemis naturels</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Apis cerana est l'hôte naturel de l'acarien parasite Varroa destructor et de la maladie fongique Nosema ceranae. Apis cerana a adapté son comportement et vit en équilibre avec le parasite alors que l'abeille domestique européenne Apis mellifera est très sensible à ces deux ravageurs.
-L'espèce japonaise Apis cerana japonica a la particularité de se défendre contre des attaques du frelon asiatique (Vespa velutina) et du frelon géant (Vespa mandarinia). Les abeilles forment une boule compacte autour de l'indésirable, puis font vibrer les muscles de leurs ailes. La chaleur produite tue le frelon, sa température létale étant légèrement inférieure à celle de l'abeille[2],[3],[4]. Cette méthode de défense est appelée défense par hyperthermie[5],[6].
+L'espèce japonaise Apis cerana japonica a la particularité de se défendre contre des attaques du frelon asiatique (Vespa velutina) et du frelon géant (Vespa mandarinia). Les abeilles forment une boule compacte autour de l'indésirable, puis font vibrer les muscles de leurs ailes. La chaleur produite tue le frelon, sa température létale étant légèrement inférieure à celle de l'abeille. Cette méthode de défense est appelée défense par hyperthermie,.
 			Abeilles asiatiques japonaises formant une « boule d'abeilles » dans laquelle deux frelons (Vespa simillima xanthoptera) sont englués et chauffés (défense par hyperthermie).Yokohama (Japon).
 </t>
         </is>
@@ -606,7 +624,9 @@
           <t>Religion et culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'abeille indienne est sacré dans l'hindouisme, équivalent à la vache sacrée. Cette considération de l'abeille sacrée a pour origine l'histoire de la déesse Bhramari Devi, cette déesse hindou fut la seule qui réussit à battre les forces du mal lorsqu'elle naissent sous la forme de sadhu qui médita et ne mangea rien jusqu'à ce que Brahma vint les récompenser en demandant ce qu'il voudrait, le sadhu répondit qu'il ne voudrait mourir tué dans une guerre, par une arme, par un homme ou une femme, par un bipède, par un quadrupède ou un mélange des deux précédents. 
@@ -641,7 +661,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Apis cerana cerana (Fabricius)
 Apis cerana japonica (Radoszkowski)
